--- a/data/trans_bre/P43_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,15</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>45,15%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,6%</t>
+          <t>-34,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-73,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-17,36%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 50,16</t>
+          <t>0,0; 13,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 24,05</t>
+          <t>-14,27; 6,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 14,7</t>
+          <t>-17,89; 1,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-14,11; 9,55</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>134,23%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>298,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>57,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-35,04%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 15,71</t>
+          <t>-9,09; 11,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 21,03</t>
+          <t>-0,97; 18,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 16,28</t>
+          <t>-6,14; 15,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,5; 353,63</t>
+          <t>-42,07; 11,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,67; 949,76</t>
+          <t>-97,06; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 284,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-74,89; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 298,24</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>-10,94%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-43,78%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 12,27</t>
+          <t>-9,33; 6,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,89; 8,47</t>
+          <t>-10,43; 6,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 10,41</t>
+          <t>-6,6; 8,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,96; 266,1</t>
+          <t>-17,32; 3,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-56,24; 155,03</t>
+          <t>-74,71; 229,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,84; 219,79</t>
+          <t>-72,37; 250,36</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-63,03; 476,58</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-85,67; 68,64</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,41</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,71</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,0</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>177,36%</t>
+          <t>170,29%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>264,66%</t>
+          <t>194,42%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>219,29%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 17,32</t>
+          <t>-0,76; 17,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 28,11</t>
+          <t>2,17; 20,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 31,45</t>
+          <t>3,37; 22,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 212,01</t>
+          <t>-11,28; 12,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,98; 457,29</t>
+          <t>-18,42; 1081,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,14; 724,73</t>
+          <t>2,69; 770,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>21,95; 815,39</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-45,78; 94,87</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>51,61%</t>
+          <t>-59,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>-64,96%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-57,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-9,34%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 31,56</t>
+          <t>-14,36; 2,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 28,91</t>
+          <t>-16,92; 1,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 27,05</t>
+          <t>-14,19; 3,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 269,59</t>
+          <t>-12,13; 10,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 342,95</t>
+          <t>-100,0; 84,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 317,26</t>
+          <t>-100,0; 66,39</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 146,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-73,83; 181,66</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>69,19</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,4</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1042,30 +1168,40 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-11,04; 0,0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 15,41</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 14,32</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>12,99; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,78; 100,0</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>51,89%</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,24%</t>
+          <t>48,81%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-25,91%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 11,49</t>
+          <t>-2,48; 4,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 14,68</t>
+          <t>-0,61; 7,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,78</t>
+          <t>-1,31; 5,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,69; 137,68</t>
+          <t>-11,09; 1,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,27; 197,11</t>
+          <t>-34,01; 113,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,83; 191,57</t>
+          <t>-9,05; 166,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-19,28; 144,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-58,35; 21,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P43_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,177 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,54</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-34,2%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-73,73%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-17,36%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>20.54944073537531</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.912589148986056</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-12.19256800896957</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.472683822331446</v>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1731551737330692</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.7364835167248812</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1686972713103698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 13,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-14,27; 6,11</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-17,89; 1,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,11; 9,55</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-34.77134494651136</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-48.00992982317316</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.01034895469612</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>67.48328052884374</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.38698052194443</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.404964836684483</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>17.903909379451</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-6,27</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,15%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>298,34%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>57,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-35,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,09; 11,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 18,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 15,63</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-42,07; 11,44</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-97,06; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-74,89; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 298,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.835854165436974</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>14.53493163337972</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.582358888615399</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.68425115830077</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7187608704684569</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>5.270316459636451</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.57863921570239</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2363903491644833</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,78</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,97%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-10,94%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>21,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-43,78%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.469143923247501</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3.295465350973772</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.558266736625504</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-40.40996079476918</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.6100353817264734</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,33; 6,91</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,43; 6,49</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,6; 8,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-17,32; 3,75</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-74,71; 229,74</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-72,37; 250,36</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-63,03; 476,58</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-85,67; 68,64</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.69795979828055</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>31.4624528386443</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>25.96280524423764</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.8173534182657</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>16.57429598594976</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.295920078479776</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +805,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,93</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11,99</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>13,07</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>170,29%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>194,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>219,29%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.196131527126813</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.630242358590711</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.077391694793241</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-3.896393929180216</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2381906425360883</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1428689125977354</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.4423634260358992</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2830103045788621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 17,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 20,75</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 22,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-11,28; 12,26</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-18,42; 1081,38</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,69; 770,35</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>21,95; 815,39</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-45,78; 94,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.888563637022298</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.41876354002391</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.65601263229649</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.56461588451635</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6559189152401779</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7766254658038839</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6343137055735037</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7754387751757488</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.68085717822307</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.933051398002709</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.02743095997177</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.129508221244286</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.609258022683119</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>1.857528964419103</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>4.712697309948451</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.427860372428654</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,68</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,46</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,57</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-59,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-64,96%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-57,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-9,34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,36; 2,48</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-16,92; 1,51</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-14,19; 3,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,13; 10,05</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 84,26</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 66,39</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 146,47</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-73,83; 181,66</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>15.65990668960753</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>20.4537422521688</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>22.07077544062667</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.747965693242297</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.58268328091177</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>3.258050144067412</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>3.519450313515183</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3217926724054802</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,71</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,87</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.643582339957117</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>8.453465205189453</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>9.868738651009719</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-9.090854920228097</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1664323558155228</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.5448477182603302</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.7910133553250775</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3291617103473784</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,04; 0,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 14,32</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>30.9844007803975</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>32.68493519476903</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>34.26000703491648</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>21.01470903419172</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>12.98881888184669</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>11.02499633524902</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>11.93039968523819</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.550755399871897</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1005,263 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>16,79%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>48,81%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>39,31%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-25,91%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.775339216583303</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-5.270089867760644</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.065916344675591</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>8.020460913958821</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.1459906944105394</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.2634762820088956</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.05812562815942442</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.273090012386927</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 4,54</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 7,04</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 5,95</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,09; 1,74</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-34,01; 113,08</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 166,14</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 144,2</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-58,35; 21,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-22.2885186482956</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-23.08308722180486</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-21.25005223625561</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-18.89617542915368</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.5194317491582865</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>25.62673023755587</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>22.31364053179555</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>30.90827224778604</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>36.85116595852443</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>3.486711662262974</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>2.23946813162968</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>3.487736332134349</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>2.214654634055278</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr"/>
+      <c r="D19" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="inlineStr"/>
+      <c r="H19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I19" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr"/>
+      <c r="D20" s="5" t="inlineStr"/>
+      <c r="E20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="inlineStr"/>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr"/>
+      <c r="D21" s="5" t="inlineStr"/>
+      <c r="E21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr"/>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>6.499603921651312</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>8.086827789690187</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>7.80515063023244</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-1.396279991685465</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.6809976494470209</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.8520373653636639</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.9011505785114374</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.07448094735517526</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>0.017041845351427</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.786723690551257</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>1.338790180729008</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-14.70698043441189</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.08359969437588263</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.09555512537799082</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.06708336206242595</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.5413725889587886</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>15.284445149808</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>15.17224276551394</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>14.79137024758874</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>6.187925497013813</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>2.194589292897368</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>2.147324789673399</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.512449430659397</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.4583210540624107</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1269,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
